--- a/docs/メッセージ一覧.xlsx
+++ b/docs/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-foundation-src\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-fund\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CEACB4-94BE-4DB8-82DE-49B9EBA4B1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC60410-5C16-4BC3-9036-DE76598BCAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -123,6 +123,25 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ファイルイテレータで現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルイテレータで現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルイテレータで対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルイテレータで対象ファイルが見つかりません。対象ファイルパス=[{0}]</t>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +180,12 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -256,6 +281,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4438,60 +4472,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="54">
       <c r="A3" s="9">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="12">
-        <v>24000</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
+        <v>13000</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ref="D3" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGFUND_GEN24000=該当するYAMLファイルがありません。ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>KMGFUND_GEN13000=ファイルイテレータで現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="12">
-        <v>24001</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>13001</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" ref="D4:D36" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
-        <v>KMGFUND_GEN24001=YAMLにロードするファイルの読み込みに失敗しました。ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>KMGFUND_GEN13001=ファイルイテレータで現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36">
       <c r="A5" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12">
+        <v>13002</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>KMGFUND_GEN13002=ファイルイテレータで対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12">
+        <v>13003</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>KMGFUND_GEN13003=ファイルイテレータで対象ファイルが見つかりません。対象ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4499,11 +4541,15 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="12">
+        <v>24000</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>KMGFUND_GEN24000=該当するYAMLファイルがありません。ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4511,11 +4557,15 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="12">
+        <v>24001</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" ref="D8" si="3">IF(C8="","",$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8)</f>
+        <v>KMGFUND_GEN24001=YAMLにロードするファイルの読み込みに失敗しました。ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
